--- a/exercice merice.xlsx
+++ b/exercice merice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t xml:space="preserve">objects</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve">modele logique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clientS</t>
   </si>
   <si>
     <t xml:space="preserve">N / 5</t>
@@ -559,7 +556,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4326120" y="3066840"/>
-          <a:ext cx="2471760" cy="1136880"/>
+          <a:ext cx="2471040" cy="1136880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -602,7 +599,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7396920" y="3189960"/>
+          <a:off x="7396200" y="3189960"/>
           <a:ext cx="0" cy="1013400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -647,7 +644,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4553640" y="4930560"/>
-          <a:ext cx="2462400" cy="0"/>
+          <a:ext cx="2461680" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -734,7 +731,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8466480" y="7962840"/>
+          <a:off x="8465760" y="7962840"/>
           <a:ext cx="1638360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -778,7 +775,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8070120" y="8707320"/>
+          <a:off x="8069400" y="8707320"/>
           <a:ext cx="874440" cy="495720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -822,7 +819,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6837840" y="9965160"/>
+          <a:off x="6837120" y="9965160"/>
           <a:ext cx="2390760" cy="28440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -857,22 +854,22 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M42" activeCellId="0" sqref="M42"/>
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.59"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="11.57"/>
@@ -1202,7 +1199,7 @@
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="17" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="3"/>
@@ -1221,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1229,13 +1226,13 @@
         <v>28</v>
       </c>
       <c r="I39" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L39" s="18" t="s">
+      <c r="M39" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="M39" s="18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -1251,13 +1248,13 @@
         <v>31</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L40" s="18" t="s">
         <v>29</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1265,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -1273,7 +1270,7 @@
         <v>33</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>32</v>
@@ -1285,15 +1282,15 @@
         <v>19</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L42" s="18" t="s">
         <v>28</v>
@@ -1305,7 +1302,7 @@
         <v>22</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -1316,17 +1313,17 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" s="3"/>
       <c r="L44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,7 +1332,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I45" s="3"/>
     </row>
@@ -1369,7 +1366,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="K48" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L48" s="18"/>
     </row>
@@ -1380,12 +1377,12 @@
         <v>8</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="K49" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L49" s="18"/>
     </row>
@@ -1396,7 +1393,7 @@
         <v>13</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="21"/>
@@ -1412,7 +1409,7 @@
         <v>17</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="23"/>
@@ -1428,7 +1425,7 @@
         <v>20</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="21"/>
@@ -1449,7 +1446,7 @@
       <c r="D54" s="3"/>
       <c r="E54" s="21"/>
       <c r="F54" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
